--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\stageCrefat\CREFAT-DGP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14775" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">Planning des Taches </t>
   </si>
@@ -76,6 +81,9 @@
   </si>
   <si>
     <t>29/04/2015 à 10h</t>
+  </si>
+  <si>
+    <t>cesss</t>
   </si>
 </sst>
 </file>
@@ -154,6 +162,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -482,24 +498,24 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="23">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="23">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +525,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,7 +537,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -533,7 +549,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,7 +561,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -557,7 +573,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -569,7 +585,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -577,7 +593,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -591,7 +607,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -599,13 +615,15 @@
       <c r="C13" s="4">
         <v>42116</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -619,7 +637,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -633,7 +651,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -647,7 +665,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -661,7 +679,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
